--- a/mMonitoreoTeoricos/formatos/Importador Reporte.xlsx
+++ b/mMonitoreoTeoricos/formatos/Importador Reporte.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abraham Martinez\Desktop\RESPALDO\IMPORTADORES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="885" windowWidth="19440" windowHeight="6810"/>
   </bookViews>
@@ -14,388 +19,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ClaveArticulo</t>
   </si>
   <si>
-    <t>752944</t>
-  </si>
-  <si>
-    <t>752945</t>
-  </si>
-  <si>
-    <t>752946</t>
-  </si>
-  <si>
-    <t>752947</t>
-  </si>
-  <si>
-    <t>752948</t>
-  </si>
-  <si>
-    <t>752949</t>
-  </si>
-  <si>
-    <t>752950</t>
-  </si>
-  <si>
-    <t>760055</t>
-  </si>
-  <si>
-    <t>760073</t>
-  </si>
-  <si>
-    <t>760095</t>
-  </si>
-  <si>
-    <t>760096</t>
-  </si>
-  <si>
-    <t>760097</t>
-  </si>
-  <si>
-    <t>760168</t>
-  </si>
-  <si>
-    <t>760169</t>
-  </si>
-  <si>
-    <t>760170</t>
-  </si>
-  <si>
-    <t>760171</t>
-  </si>
-  <si>
-    <t>760100</t>
-  </si>
-  <si>
-    <t>760101</t>
-  </si>
-  <si>
-    <t>760102</t>
-  </si>
-  <si>
-    <t>760103</t>
-  </si>
-  <si>
-    <t>760104</t>
-  </si>
-  <si>
-    <t>760201</t>
-  </si>
-  <si>
-    <t>760202</t>
-  </si>
-  <si>
-    <t>771156</t>
-  </si>
-  <si>
-    <t>771157</t>
-  </si>
-  <si>
-    <t>771158</t>
-  </si>
-  <si>
-    <t>760116</t>
-  </si>
-  <si>
-    <t>760117</t>
-  </si>
-  <si>
-    <t>760118</t>
-  </si>
-  <si>
-    <t>760119</t>
-  </si>
-  <si>
-    <t>760120</t>
-  </si>
-  <si>
-    <t>760121</t>
-  </si>
-  <si>
-    <t>760122</t>
-  </si>
-  <si>
-    <t>760123</t>
-  </si>
-  <si>
-    <t>760124</t>
-  </si>
-  <si>
-    <t>760125</t>
-  </si>
-  <si>
-    <t>760126</t>
-  </si>
-  <si>
-    <t>760127</t>
-  </si>
-  <si>
-    <t>760128</t>
-  </si>
-  <si>
-    <t>760129</t>
-  </si>
-  <si>
-    <t>760130</t>
-  </si>
-  <si>
-    <t>760131</t>
-  </si>
-  <si>
-    <t>760132</t>
-  </si>
-  <si>
-    <t>760133</t>
-  </si>
-  <si>
-    <t>760134</t>
-  </si>
-  <si>
-    <t>760135</t>
-  </si>
-  <si>
-    <t>760136</t>
-  </si>
-  <si>
-    <t>760178</t>
-  </si>
-  <si>
-    <t>760179</t>
-  </si>
-  <si>
-    <t>760180</t>
-  </si>
-  <si>
-    <t>760181</t>
-  </si>
-  <si>
-    <t>760182</t>
-  </si>
-  <si>
-    <t>760183</t>
-  </si>
-  <si>
-    <t>760184</t>
-  </si>
-  <si>
-    <t>760185</t>
-  </si>
-  <si>
-    <t>760186</t>
-  </si>
-  <si>
-    <t>760187</t>
-  </si>
-  <si>
-    <t>760188</t>
-  </si>
-  <si>
-    <t>760189</t>
-  </si>
-  <si>
-    <t>760190</t>
-  </si>
-  <si>
-    <t>760191</t>
-  </si>
-  <si>
-    <t>760192</t>
-  </si>
-  <si>
-    <t>760193</t>
-  </si>
-  <si>
-    <t>760159</t>
-  </si>
-  <si>
-    <t>760160</t>
-  </si>
-  <si>
-    <t>760161</t>
-  </si>
-  <si>
-    <t>760162</t>
-  </si>
-  <si>
-    <t>760163</t>
-  </si>
-  <si>
-    <t>760164</t>
-  </si>
-  <si>
-    <t>760165</t>
-  </si>
-  <si>
-    <t>760166</t>
-  </si>
-  <si>
-    <t>760167</t>
-  </si>
-  <si>
-    <t>760155</t>
-  </si>
-  <si>
-    <t>760156</t>
-  </si>
-  <si>
-    <t>760157</t>
-  </si>
-  <si>
-    <t>760158</t>
-  </si>
-  <si>
-    <t>760137</t>
-  </si>
-  <si>
-    <t>760138</t>
-  </si>
-  <si>
-    <t>760139</t>
-  </si>
-  <si>
-    <t>760140</t>
-  </si>
-  <si>
-    <t>760141</t>
-  </si>
-  <si>
-    <t>760142</t>
-  </si>
-  <si>
-    <t>760143</t>
-  </si>
-  <si>
-    <t>760144</t>
-  </si>
-  <si>
-    <t>760145</t>
-  </si>
-  <si>
-    <t>760146</t>
-  </si>
-  <si>
-    <t>760147</t>
-  </si>
-  <si>
-    <t>760148</t>
-  </si>
-  <si>
-    <t>760149</t>
-  </si>
-  <si>
-    <t>760150</t>
-  </si>
-  <si>
-    <t>760151</t>
-  </si>
-  <si>
-    <t>760152</t>
-  </si>
-  <si>
-    <t>760153</t>
-  </si>
-  <si>
-    <t>760154</t>
-  </si>
-  <si>
-    <t>760194</t>
-  </si>
-  <si>
-    <t>760195</t>
-  </si>
-  <si>
-    <t>760198</t>
-  </si>
-  <si>
-    <t>760199</t>
-  </si>
-  <si>
-    <t>760203</t>
-  </si>
-  <si>
-    <t>760013</t>
-  </si>
-  <si>
-    <t>7500398221184</t>
-  </si>
-  <si>
-    <t>7500398221535</t>
-  </si>
-  <si>
-    <t>7500398221542</t>
-  </si>
-  <si>
-    <t>7500398221559</t>
-  </si>
-  <si>
-    <t>7500398221566</t>
-  </si>
-  <si>
-    <t>760200</t>
-  </si>
-  <si>
-    <t>760111</t>
-  </si>
-  <si>
-    <t>760112</t>
-  </si>
-  <si>
-    <t>760113</t>
-  </si>
-  <si>
-    <t>760114</t>
-  </si>
-  <si>
-    <t>760196</t>
-  </si>
-  <si>
-    <t>760197</t>
-  </si>
-  <si>
-    <t>760172</t>
-  </si>
-  <si>
-    <t>760173</t>
-  </si>
-  <si>
-    <t>760174</t>
-  </si>
-  <si>
-    <t>760175</t>
-  </si>
-  <si>
-    <t>760176</t>
-  </si>
-  <si>
-    <t>760177</t>
-  </si>
-  <si>
-    <t>760105</t>
-  </si>
-  <si>
-    <t>760106</t>
-  </si>
-  <si>
-    <t>760107</t>
-  </si>
-  <si>
-    <t>760108</t>
-  </si>
-  <si>
-    <t>760109</t>
-  </si>
-  <si>
-    <t>760110</t>
+    <t>7506086644402</t>
+  </si>
+  <si>
+    <t>7506086646253</t>
+  </si>
+  <si>
+    <t>7502249663013</t>
+  </si>
+  <si>
+    <t>7502249662696</t>
+  </si>
+  <si>
+    <t>7506086648172</t>
+  </si>
+  <si>
+    <t>7506250933998</t>
+  </si>
+  <si>
+    <t>7506086633925</t>
+  </si>
+  <si>
+    <t>7506240638537</t>
+  </si>
+  <si>
+    <t>750224250656</t>
+  </si>
+  <si>
+    <t>7506086645096</t>
+  </si>
+  <si>
+    <t>7506086645089</t>
+  </si>
+  <si>
+    <t>750250902734</t>
+  </si>
+  <si>
+    <t>7506250915147</t>
+  </si>
+  <si>
+    <t>7501483153823</t>
+  </si>
+  <si>
+    <t>7503004095438</t>
+  </si>
+  <si>
+    <t>951772</t>
+  </si>
+  <si>
+    <t>7506086653602</t>
+  </si>
+  <si>
+    <t>7506086646246</t>
+  </si>
+  <si>
+    <t>951878</t>
+  </si>
+  <si>
+    <t>7502249664133</t>
+  </si>
+  <si>
+    <t>7506086644877</t>
+  </si>
+  <si>
+    <t>7506250914171</t>
+  </si>
+  <si>
+    <t>7506086691432</t>
+  </si>
+  <si>
+    <t>951883</t>
+  </si>
+  <si>
+    <t>951856</t>
+  </si>
+  <si>
+    <t>7506086642668</t>
+  </si>
+  <si>
+    <t>7506086642675</t>
+  </si>
+  <si>
+    <t>7503024796780</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -425,33 +142,19 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,12 +163,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -488,6 +215,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
@@ -496,33 +236,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -612,6 +340,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -915,7 +646,7 @@
   <dimension ref="A1:A291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +685,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -979,32 +710,32 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1034,624 +765,432 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="A69" s="2"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="A75" s="2"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="A81" s="2"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="A83" s="2"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="A85" s="2"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="A87" s="2"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>91</v>
-      </c>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="A98" s="2"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>98</v>
-      </c>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="A100" s="2"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="A101" s="2"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A102" s="2"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="A103" s="2"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="A104" s="2"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="A105" s="2"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="A106" s="2"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
+      <c r="A156" s="1"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
@@ -2047,10 +1586,7 @@
       <c r="A291" s="1"/>
     </row>
   </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="A25:A27" name="Rango1"/>
-  </protectedRanges>
-  <conditionalFormatting sqref="A2:A160">
+  <conditionalFormatting sqref="A2:A291">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
